--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/PAGOS  VECTOR CASA ODELPA  Enero-2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/PAGOS  VECTOR CASA ODELPA  Enero-2024.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
-    <sheet name="VECTOR   SAM FARMS    ODELPA  " sheetId="1" r:id="rId2"/>
+    <sheet name="VECTOR -Masari  SAM FARMS  CIC " sheetId="1" r:id="rId2"/>
     <sheet name="VECTOR  IDEL TRADING   ODELPA  " sheetId="2" r:id="rId3"/>
     <sheet name="SEABOARD    Odelpa  2023--2024" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId5"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t xml:space="preserve">C O N C E P TO </t>
   </si>
@@ -96,7 +96,10 @@
     <t>Compra de  38,707.81   usd tc    16.991   Y PAGO A  SAM FARMS LLC    12031--    FACTURA   12379     VALOR FACTURA    38,707.81      usd</t>
   </si>
   <si>
-    <t>Compra de  39,620.18   usd tc    16.936      Y PAGO A  SAM FARMS LLC    12028----    FACTURA   12361     VALOR FACTURA    39,620.18      usd</t>
+    <t>Compra de  37,241.29   usd tc    17.184   Y PAGO A  SAM FARMS LLC    12034--    FACTURA   12414     VALOR FACTURA    37,241.29      usd</t>
+  </si>
+  <si>
+    <t>MASARI CASA DE BOLSA SA       Compra de  39,620.18   usd tc    16.936      Y PAGO A  SAM FARMS LLC    12028----    FACTURA   12361     VALOR FACTURA    39,620.18      usd</t>
   </si>
 </sst>
 </file>
@@ -444,23 +447,23 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -765,8 +768,8 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -786,10 +789,10 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1003,8 +1006,8 @@
       <c r="A10" s="1">
         <v>45296</v>
       </c>
-      <c r="B10" s="48" t="s">
-        <v>22</v>
+      <c r="B10" s="47" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="44">
@@ -1035,11 +1038,11 @@
       <c r="A11" s="1">
         <v>45302</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="17"/>
-      <c r="D11" s="50">
+      <c r="D11" s="49">
         <v>12031</v>
       </c>
       <c r="E11" s="19">
@@ -1063,15 +1066,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="16"/>
+    <row r="12" spans="1:13" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="C12" s="17"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="49">
+        <v>12034</v>
+      </c>
+      <c r="E12" s="19">
+        <v>639954.32999999996</v>
+      </c>
+      <c r="F12" s="41">
+        <v>12414</v>
+      </c>
+      <c r="G12" s="5">
+        <v>37241.29</v>
+      </c>
+      <c r="H12" s="5">
+        <v>37241.29</v>
+      </c>
       <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1085,7 +1102,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="23"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="50"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="19"/>
       <c r="F13" s="41"/>
       <c r="G13" s="5"/>
@@ -1106,7 +1123,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="23"/>
       <c r="C14" s="17"/>
-      <c r="D14" s="50"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="19"/>
       <c r="F14" s="41"/>
       <c r="G14" s="5"/>
@@ -1127,7 +1144,7 @@
       <c r="A15" s="1"/>
       <c r="B15" s="23"/>
       <c r="C15" s="17"/>
-      <c r="D15" s="50"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="19"/>
       <c r="F15" s="41"/>
       <c r="G15" s="5"/>
@@ -1145,7 +1162,7 @@
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="51"/>
+      <c r="D16" s="50"/>
       <c r="H16" s="26"/>
       <c r="I16" s="27">
         <f t="shared" si="0"/>
@@ -1160,7 +1177,7 @@
       <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="51"/>
+      <c r="D17" s="50"/>
       <c r="H17" s="26"/>
       <c r="I17" s="27">
         <f t="shared" si="0"/>
@@ -1175,7 +1192,7 @@
       <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D18" s="51"/>
+      <c r="D18" s="50"/>
       <c r="H18" s="26"/>
       <c r="I18" s="27">
         <f t="shared" si="0"/>
@@ -1190,7 +1207,7 @@
       <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D19" s="51"/>
+      <c r="D19" s="50"/>
       <c r="H19" s="26"/>
       <c r="I19" s="27">
         <f t="shared" si="0"/>
@@ -1205,7 +1222,7 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D20" s="51"/>
+      <c r="D20" s="50"/>
       <c r="I20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1219,7 +1236,7 @@
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
-      <c r="D21" s="52"/>
+      <c r="D21" s="51"/>
       <c r="E21" s="29"/>
       <c r="F21" s="42"/>
       <c r="G21" s="29"/>
@@ -1237,7 +1254,7 @@
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="52"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="29"/>
       <c r="F22" s="42"/>
       <c r="G22" s="29"/>
@@ -1255,7 +1272,7 @@
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="33"/>
       <c r="F23" s="43"/>
       <c r="G23" s="35"/>
@@ -1270,7 +1287,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D24" s="51"/>
+      <c r="D24" s="50"/>
       <c r="I24" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1281,7 +1298,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D25" s="51"/>
+      <c r="D25" s="50"/>
       <c r="I25" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1337,10 +1354,10 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1737,7 +1754,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,10 +1774,10 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
